--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H2">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N2">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q2">
-        <v>18.41409546026675</v>
+        <v>56.84546713030845</v>
       </c>
       <c r="R2">
-        <v>18.41409546026675</v>
+        <v>511.609204172776</v>
       </c>
       <c r="S2">
-        <v>0.002343873949125765</v>
+        <v>0.00560205825141072</v>
       </c>
       <c r="T2">
-        <v>0.002343873949125765</v>
+        <v>0.00560205825141072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H3">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q3">
-        <v>23.67338356315345</v>
+        <v>36.00451875339133</v>
       </c>
       <c r="R3">
-        <v>23.67338356315345</v>
+        <v>324.040668780522</v>
       </c>
       <c r="S3">
-        <v>0.003013312662632065</v>
+        <v>0.003548205715473262</v>
       </c>
       <c r="T3">
-        <v>0.003013312662632065</v>
+        <v>0.003548205715473262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H4">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N4">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q4">
-        <v>48.89732745063437</v>
+        <v>79.60577490002144</v>
       </c>
       <c r="R4">
-        <v>48.89732745063437</v>
+        <v>716.451974100193</v>
       </c>
       <c r="S4">
-        <v>0.006223991411400763</v>
+        <v>0.007845061544068796</v>
       </c>
       <c r="T4">
-        <v>0.006223991411400763</v>
+        <v>0.007845061544068794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H5">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N5">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q5">
-        <v>13.43771065873459</v>
+        <v>21.756719091294</v>
       </c>
       <c r="R5">
-        <v>13.43771065873459</v>
+        <v>195.810471821646</v>
       </c>
       <c r="S5">
-        <v>0.001710445132472522</v>
+        <v>0.002144100732422767</v>
       </c>
       <c r="T5">
-        <v>0.001710445132472522</v>
+        <v>0.002144100732422767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N6">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q6">
-        <v>979.7591198994189</v>
+        <v>2022.412031002342</v>
       </c>
       <c r="R6">
-        <v>979.7591198994189</v>
+        <v>18201.70827902108</v>
       </c>
       <c r="S6">
-        <v>0.1247105448380991</v>
+        <v>0.1993064808502262</v>
       </c>
       <c r="T6">
-        <v>0.1247105448380991</v>
+        <v>0.1993064808502262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q7">
-        <v>1259.590159881825</v>
+        <v>1280.945967607056</v>
       </c>
       <c r="R7">
-        <v>1259.590159881825</v>
+        <v>11528.51370846351</v>
       </c>
       <c r="S7">
-        <v>0.160329382928017</v>
+        <v>0.1262358159709517</v>
       </c>
       <c r="T7">
-        <v>0.160329382928017</v>
+        <v>0.1262358159709517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N8">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q8">
-        <v>2601.681011801012</v>
+        <v>2832.163847400757</v>
       </c>
       <c r="R8">
-        <v>2601.681011801012</v>
+        <v>25489.47462660681</v>
       </c>
       <c r="S8">
-        <v>0.3311600268747176</v>
+        <v>0.2791066315685047</v>
       </c>
       <c r="T8">
-        <v>0.3311600268747176</v>
+        <v>0.2791066315685047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N9">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O9">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P9">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q9">
-        <v>714.9805211379152</v>
+        <v>774.0467739407699</v>
       </c>
       <c r="R9">
-        <v>714.9805211379152</v>
+        <v>6966.420965466929</v>
       </c>
       <c r="S9">
-        <v>0.09100768600030089</v>
+        <v>0.0762814580623046</v>
       </c>
       <c r="T9">
-        <v>0.09100768600030089</v>
+        <v>0.0762814580623046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H10">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N10">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O10">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P10">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q10">
-        <v>9.220448496586483</v>
+        <v>22.10056714334489</v>
       </c>
       <c r="R10">
-        <v>9.220448496586483</v>
+        <v>198.905104290104</v>
       </c>
       <c r="S10">
-        <v>0.001173642717180299</v>
+        <v>0.002177986579693713</v>
       </c>
       <c r="T10">
-        <v>0.001173642717180299</v>
+        <v>0.002177986579693713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H11">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P11">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q11">
-        <v>11.85391996880803</v>
+        <v>13.99795488264867</v>
       </c>
       <c r="R11">
-        <v>11.85391996880803</v>
+        <v>125.981593943838</v>
       </c>
       <c r="S11">
-        <v>0.001508849254630092</v>
+        <v>0.001379483054883842</v>
       </c>
       <c r="T11">
-        <v>0.001508849254630092</v>
+        <v>0.001379483054883842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H12">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N12">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O12">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P12">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q12">
-        <v>24.48424851234954</v>
+        <v>30.94939424357188</v>
       </c>
       <c r="R12">
-        <v>24.48424851234954</v>
+        <v>278.544548192147</v>
       </c>
       <c r="S12">
-        <v>0.003116525184516775</v>
+        <v>0.003050028756047</v>
       </c>
       <c r="T12">
-        <v>0.003116525184516775</v>
+        <v>0.003050028756047001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H13">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N13">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O13">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P13">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q13">
-        <v>6.728634556513732</v>
+        <v>8.458648602425997</v>
       </c>
       <c r="R13">
-        <v>6.728634556513732</v>
+        <v>76.12783742183399</v>
       </c>
       <c r="S13">
-        <v>0.0008564673341805008</v>
+        <v>0.000833590514620637</v>
       </c>
       <c r="T13">
-        <v>0.0008564673341805008</v>
+        <v>0.000833590514620637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H14">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N14">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O14">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P14">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q14">
-        <v>377.9973636094335</v>
+        <v>868.7135767610044</v>
       </c>
       <c r="R14">
-        <v>377.9973636094335</v>
+        <v>7818.42219084904</v>
       </c>
       <c r="S14">
-        <v>0.04811412948923291</v>
+        <v>0.08561076733964906</v>
       </c>
       <c r="T14">
-        <v>0.04811412948923291</v>
+        <v>0.08561076733964908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H15">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P15">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q15">
-        <v>485.9579768061694</v>
+        <v>550.2217827521532</v>
       </c>
       <c r="R15">
-        <v>485.9579768061694</v>
+        <v>4951.996044769379</v>
       </c>
       <c r="S15">
-        <v>0.06185610608262496</v>
+        <v>0.05422375140495905</v>
       </c>
       <c r="T15">
-        <v>0.06185610608262496</v>
+        <v>0.05422375140495906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H16">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N16">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O16">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P16">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q16">
-        <v>1003.745250684131</v>
+        <v>1216.537059774774</v>
       </c>
       <c r="R16">
-        <v>1003.745250684131</v>
+        <v>10948.83353797297</v>
       </c>
       <c r="S16">
-        <v>0.1277636661390026</v>
+        <v>0.119888388958714</v>
       </c>
       <c r="T16">
-        <v>0.1277636661390026</v>
+        <v>0.119888388958714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H17">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N17">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O17">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P17">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q17">
-        <v>275.8440789507277</v>
+        <v>332.4866205612599</v>
       </c>
       <c r="R17">
-        <v>275.8440789507277</v>
+        <v>2992.37958505134</v>
       </c>
       <c r="S17">
-        <v>0.03511135000186619</v>
+        <v>0.0327661906960701</v>
       </c>
       <c r="T17">
-        <v>0.03511135000186619</v>
+        <v>0.0327661906960701</v>
       </c>
     </row>
   </sheetData>
